--- a/distrib/cutover/Propel Cutover.xlsx
+++ b/distrib/cutover/Propel Cutover.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\Dev\Propel\propel\distrib\cutover\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC77F8B-020E-487C-9AD0-518769B3086C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9253B514-49D5-4521-93BC-324CE8573A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="10320" tabRatio="703" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2307,8 +2307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177141F9-2E70-4204-A84B-1CBF1F821978}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="52" x14ac:dyDescent="0.35">
@@ -2384,7 +2384,7 @@
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="26" x14ac:dyDescent="0.35">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="52" x14ac:dyDescent="0.35">
@@ -2416,7 +2416,7 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="26" x14ac:dyDescent="0.35">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
